--- a/SRC/BackTest/data/AILabxTest2_3_info_4.xlsx
+++ b/SRC/BackTest/data/AILabxTest2_3_info_4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>pnl_ratio</t>
   </si>
@@ -99,6 +99,1023 @@
   <si>
     <t>backtest_marginfloat_ratio2=0.4,</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index_list = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t># List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SZSE.159509"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳指科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.518880"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.512480"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半导体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SZSE.159531"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2000ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.513100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.513520"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SZSE.159857"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光伏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.512100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.510180"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.588000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.513330"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒生互联网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SZSE.162719"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LOF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.513500"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标普</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SZSE.159915"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创业板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SHSE.513030"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +1127,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +1143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.8"/>
       <name val="Courier New"/>
       <charset val="134"/>
@@ -140,6 +1150,18 @@
     <font>
       <sz val="9.8"/>
       <color rgb="FF7A7E85"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -286,6 +1308,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -606,31 +1634,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,126 +1664,132 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1108,7 +2139,7 @@
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J18" sqref="J18:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1596,7 +2627,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>4.85416166625617</v>
       </c>
@@ -1621,8 +2652,11 @@
       <c r="H18">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>4.83382736306256</v>
       </c>
@@ -1647,8 +2681,11 @@
       <c r="H19">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>4.80123712059093</v>
       </c>
@@ -1673,8 +2710,11 @@
       <c r="H20">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>4.70553739652258</v>
       </c>
@@ -1699,8 +2739,11 @@
       <c r="H21">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>4.67723682433973</v>
       </c>
@@ -1725,8 +2768,11 @@
       <c r="H22">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>4.66803615583176</v>
       </c>
@@ -1751,8 +2797,11 @@
       <c r="H23">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>4.65418848875841</v>
       </c>
@@ -1777,8 +2826,11 @@
       <c r="H24">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>4.6487908745412</v>
       </c>
@@ -1803,8 +2855,11 @@
       <c r="H25">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>4.64284089108334</v>
       </c>
@@ -1829,8 +2884,11 @@
       <c r="H26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>4.62936698620065</v>
       </c>
@@ -1855,8 +2913,11 @@
       <c r="H27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>4.61416415257913</v>
       </c>
@@ -1881,8 +2942,11 @@
       <c r="H28">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>4.60565034456862</v>
       </c>
@@ -1907,8 +2971,11 @@
       <c r="H29">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>4.60326189034086</v>
       </c>
@@ -1933,8 +3000,11 @@
       <c r="H30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>4.59159095082834</v>
       </c>
@@ -1959,8 +3029,11 @@
       <c r="H31">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>4.58614674826659</v>
       </c>
@@ -1985,8 +3058,11 @@
       <c r="H32">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>4.57674238660147</v>
       </c>
@@ -2011,8 +3087,11 @@
       <c r="H33">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>4.5619796045195</v>
       </c>
@@ -2036,6 +3115,9 @@
       </c>
       <c r="H34">
         <v>0.2</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2064,7 +3146,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>4.54832440445125</v>
       </c>
@@ -2088,6 +3170,9 @@
       </c>
       <c r="H36">
         <v>0.2</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8982,7 +10067,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H301">
-    <sortState ref="A2:H301">
+    <sortState ref="A1:H301">
       <sortCondition ref="A1" descending="1"/>
     </sortState>
     <extLst/>
